--- a/docs/Decodifiche/9_dec_tipo_allegato.xlsx
+++ b/docs/Decodifiche/9_dec_tipo_allegato.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -116,7 +116,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di dichiarazione/assenso del figlio</t>
   </si>
   <si>
     <t>15</t>
@@ -729,6 +729,54 @@
   </si>
   <si>
     <t>Atto di costituzione e traduzione</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Copia sentenza/decreto</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Atto di pre-riconoscimento dell'altro genitore</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Provvedimento di riconoscimento della sentenza straniera</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Certificato di cittadinanza straniera o Riconoscimento dello status di apolide del minore</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Provvedimento di adozione</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Documentazione comprovante la qualita' di tutore</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>Documentazione comprovante la condizione di unico genitore del minore</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Ricevuta del pagamento</t>
   </si>
   <si>
     <t>998</t>
@@ -799,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2775,7 +2823,7 @@
         <v>240</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
@@ -2792,13 +2840,149 @@
         <v>242</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
